--- a/biology/Médecine/Fracture_ouverte/Fracture_ouverte.xlsx
+++ b/biology/Médecine/Fracture_ouverte/Fracture_ouverte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fracture ouverte est une fracture où l'os est mis à nu, il sort généralement de la chair, mais peut aussi causer la déchirure cutanée et reprendre sa place à l'intérieur de la peau.
 </t>
@@ -511,7 +523,9 @@
           <t>Objectifs du traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les objectifs du traitement en matière de fracture ouverte sont la prévention de  l'infection, la consolidation, la prévention de cal vicieux (consolidation en mauvaise position) et la restauration du bon fonctionnement tant du membre que du blessé sans retard. 
 Parmi ces objectifs, éviter l'infection est primordial, celle-ci pouvant mener à la pseudarthrose (non consolidation) et à la perte de fonctionnement du membre.
@@ -546,7 +560,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que la taille de la plaie (ou en règle « contusion ouverte ») joue un rôle important dans la classification des fractures ouvertes, ce serait une erreur de prendre en considération cette donnée (taille de la plaie) comme élément déterminant selon certains médecins.
 En règle générale, c'est l'étendue de la lésion traumatique dans sa totalité qui est prise en compte pour mettre en œuvre avec profit toute « classification ».[réf. nécessaire]
